--- a/pred_ohlcv/54_21/2020-01-11 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LUNA ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-4146.641414109994</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8784.219214109993</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11099.34421410999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-656.1131285800002</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>7534.61047142</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>28461.09087142</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>44226.73497142</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>48731.29897142</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>101392.14697142</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>182545.46247717</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>164041.61387717</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>163514.38977717</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>186398.94497717</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>165679.22957717</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>167883.0630771701</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>119484.1295771701</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>16720.00577717003</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>15253.14407717003</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>15228.14407717003</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-10502.17652282996</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-24510.38092282997</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-14603.41512282997</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-17863.85672323994</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-14644.59532323994</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-76026.49821472995</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-76026.49821472995</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-73645.35601472994</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-73645.35601472994</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-70898.72071472995</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-72929.67881472995</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-75002.43731472995</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-70859.88531472995</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-73301.14251472996</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-69771.67931472996</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-63884.08271472996</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-65958.77491472996</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-69095.30301472996</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-66774.91271472996</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-71456.42821472995</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-66436.67841472995</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-72353.80441472995</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-67530.69341472995</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-71268.67181472995</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-68761.88331472996</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-72445.69411472997</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-76547.23171472996</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-74289.13451472996</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-76598.24451472996</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-72739.95441472996</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-72739.95441472996</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-76774.18231472996</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-72786.44811472995</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-75550.11191472995</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29538,7 +29538,7 @@
         <v>-71919.53721472995</v>
       </c>
       <c r="H1121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-71919.53721472995</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-71919.53721472995</v>
       </c>
       <c r="H1123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-75393.63451472994</v>
       </c>
       <c r="H1124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-75393.63451472994</v>
       </c>
       <c r="H1125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-68237.69811472994</v>
       </c>
       <c r="H1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-73148.35411472994</v>
       </c>
       <c r="H1127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-63990.31011472994</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-68057.33761472994</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-11 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 LUNA ohlcv.xlsx
@@ -1484,7 +1484,7 @@
         <v>-4146.641414109994</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-8784.219214109993</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-11099.34421410999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-656.1131285800002</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>7534.61047142</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>28461.09087142</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>44226.73497142</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>48731.29897142</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>101392.14697142</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>135288.33637717</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>182545.46247717</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>182545.46247717</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>164041.61387717</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>155603.37067717</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>167266.25857717</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>163514.38977717</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>163514.38977717</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>186398.94497717</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>165679.22957717</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>167883.0630771701</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>119484.1295771701</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>16720.00577717003</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>15253.14407717003</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>15228.14407717003</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-10502.17652282996</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-24510.38092282997</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-14603.41512282997</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-17863.85672323994</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-14644.59532323994</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-76026.49821472995</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-76026.49821472995</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-75002.43731472995</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-70859.88531472995</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-73301.14251472996</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-69771.67931472996</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-72949.19551472996</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-75862.81101472996</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-75862.81101472996</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-71774.11021472995</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-63884.08271472996</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-65958.77491472996</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-69095.30301472996</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-66774.91271472996</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
